--- a/testcase_study.xlsx
+++ b/testcase_study.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_code\interface-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5017FD56-1ABB-4C5D-86DC-CEE0235CBDB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E1D28B-B73C-438E-BFF6-C690BCAAF6F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="16092" windowHeight="14424" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2412" yWindow="2856" windowWidth="21792" windowHeight="14424" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="2" r:id="rId1"/>
-    <sheet name="TestCase" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t xml:space="preserve"> 概要说明</t>
   </si>
@@ -129,6 +129,9 @@
     <t>Form</t>
   </si>
   <si>
+    <t>{"username":"xiaoming","pwd":"123456"}</t>
+  </si>
+  <si>
     <t>"error_code": 0</t>
   </si>
   <si>
@@ -144,6 +147,9 @@
     <t>Json</t>
   </si>
   <si>
+    <t>{"username":"xiaoqiang","pwd":"123456"}</t>
+  </si>
+  <si>
     <t>获取书籍列表-GET演示</t>
   </si>
   <si>
@@ -162,39 +168,14 @@
     <t>/book_info</t>
   </si>
   <si>
-    <t>{"username":"xiaoming","pwd":"123456"}</t>
+    <t>{"booke_name":"接口来自moco","check_status":"on"}</t>
+  </si>
+  <si>
+    <t>${checkstatus}=[checkstatus]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"xiaoqiang","pwd":"123456"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"booke_name":"接口来自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>moco</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","check_status":"on"}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -290,19 +271,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -375,21 +343,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -401,75 +384,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -495,7 +469,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -503,6 +477,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -514,12 +493,12 @@
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-9907-4D21-804C-5F7CEF0B072B}"/>
+                <c16:uniqueId val="{00000001-19E9-4C0F-BAA8-B796AD6A6AC3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -534,12 +513,12 @@
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9907-4D21-804C-5F7CEF0B072B}"/>
+                <c16:uniqueId val="{00000003-19E9-4C0F-BAA8-B796AD6A6AC3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -548,15 +527,15 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -579,33 +558,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Summary!$G$15:$G$17</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>(Summary!$G$15,Summary!$G$17)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
@@ -620,32 +578,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Summary!$H$15:$H$17</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>(Summary!$H$15,Summary!$H$17)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="0.00%">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="0.00%">
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions/>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9907-4D21-804C-5F7CEF0B072B}"/>
+              <c16:uniqueId val="{00000004-19E9-4C0F-BAA8-B796AD6A6AC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -660,13 +608,6 @@
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -675,15 +616,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -703,596 +644,12 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1312,7 +669,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -1597,7 +954,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C6:I18"/>
+  <dimension ref="B6:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -1605,14 +962,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.21875"/>
+    <col min="2" max="2" width="5.109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="24" t="s">
         <v>0</v>
       </c>
@@ -1623,162 +980,162 @@
       <c r="H6" s="25"/>
       <c r="I6" s="26"/>
     </row>
-    <row r="7" spans="3:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="3:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="3:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="3:9" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="3:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f>COUNTIF(TestCase!J:J,"Yes")</f>
-        <v>4</v>
-      </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="3:9" ht="15.6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="3:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="3:9" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="3:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f>COUNTIF(TestCase!K:K,"成功")</f>
         <v>0</v>
       </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="3:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="3:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="3:9" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="3:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>42736</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f>COUNTIF(TestCase!K:K,"失败")</f>
         <v>0</v>
       </c>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="3:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="3:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="3:9" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="3:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>2423597857</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="14">
         <f>H11/H9</f>
         <v>0</v>
       </c>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="3:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="3:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="3:9" ht="32.4" x14ac:dyDescent="0.35">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="3:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="7"/>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <f>SUM(TestCase!M:M)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="14">
         <f>H13/H9</f>
         <v>0</v>
       </c>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="3:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="23"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="3:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1797,7 +1154,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1814,8 +1171,8 @@
     <col min="10" max="10" width="11.88671875" style="2" customWidth="1"/>
     <col min="11" max="12" width="9" style="2" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="14" max="15" width="9" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,14 +1235,14 @@
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>44</v>
+      <c r="G2" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1893,28 +1250,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1922,28 +1279,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1951,38 +1308,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="22" t="s">
         <v>46</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6:E496" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"POST,GET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6:F1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6:F1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Form,Json"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 J3 J4 J5 J6:J496" xr:uid="{00000000-0002-0000-0100-000003000000}">
